--- a/medicine/Enfance/Grégoire_Solotareff/Grégoire_Solotareff.xlsx
+++ b/medicine/Enfance/Grégoire_Solotareff/Grégoire_Solotareff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gr%C3%A9goire_Solotareff</t>
+          <t>Grégoire_Solotareff</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grégoire Solotareff, né le 18 août 1953 à Alexandrie, en Égypte[2], est un dessinateur et plasticien français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grégoire Solotareff, né le 18 août 1953 à Alexandrie, en Égypte, est un dessinateur et plasticien français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gr%C3%A9goire_Solotareff</t>
+          <t>Grégoire_Solotareff</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Fils du médecin et critique d'art d'origine libanaise Henri El-Kayem (1912-2000)[3] et de l'illustratrice d'origine russe Olga Solotareff, connue sous le nom français d'Olga Lecaye[4], Grégoire Solotareff est le cadet d'une fratrie de quatre enfants, parmi laquelle figurent l'illustratrice Nadja[5]ainsi que l'écrivain et producteur Alexis Lecaye[6],[4].  
-Son neveu,  Raphaël Fejtö, est auteur-illustrateur de livres pour enfants[7].  
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils du médecin et critique d'art d'origine libanaise Henri El-Kayem (1912-2000) et de l'illustratrice d'origine russe Olga Solotareff, connue sous le nom français d'Olga Lecaye, Grégoire Solotareff est le cadet d'une fratrie de quatre enfants, parmi laquelle figurent l'illustratrice Nadjaainsi que l'écrivain et producteur Alexis Lecaye,.  
+Son neveu,  Raphaël Fejtö, est auteur-illustrateur de livres pour enfants.  
 Grégoire Solotareff vit ses premières années en Égypte avant de quitter Alexandrie en 1956 pour le Liban. En 1960, la famille s'installe en France. L'enfance de Grégoire Solotareff est marquée par une grande liberté d'expression artistique ; scolarisé tardivement, à douze ans, le dessin et la création ont toujours été extrêmement présents dans son quotidien, ce qui ne l'empêchera pas de faire des études de médecine et d'exercer ce métier pendant sept ans, de 1978 à 1985.
-Carrière
-La carrière de dessinateur de Grégoire Solotareff commence en 1985 aux éditions Hatier. Parait, en parallèle, à L'École des loisirs, la série Monsieur l'Ogre qui marque le début d'une longue collaboration avec l'une des plus importantes maisons d'édition française de livres pour la jeunesse[8].  
-La série Loulou, publiée en 1989, marque un tournant dans sa carrière ; cette amitié entre un loup et un lapin inaugure un travail graphique utilisant des couleurs vives et de grands aplats de couleur cernés de noir. Vendu à plus d'un million d'exemplaires et traduit en plusieurs langues, Loulou est adapté en film en 2003 avec Loulou et autres loups. Loulou, l'incroyable secret reçoit ensuite le César 2014 du meilleur long-métrage d'animation[9].
-Famille
-Grégoire Solotareff est le compagnon de Kimiko[10], également illustratrice de jeunesse.
 </t>
         </is>
       </c>
@@ -532,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gr%C3%A9goire_Solotareff</t>
+          <t>Grégoire_Solotareff</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Influences</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les auteurs et dessinateurs qui ont influencé le travail de Grégoire Solotareff vont de Jean de La Fontaine à Jean de Brunhoff  en passant par Alain Le Saux et Tomi Ungerer.  
-D'un point de vue plastique, il s'inspire des travaux de Paul Gauguin, Henri Matisse, Vincent van Gogh, Pablo Picasso, Pieter Brueghel, James Ensor, Antoine-Louis Barye et Jérôme Bosch, Constantin Brancusi ou encore Henry Moore[11].
-Le travail de Grégoire Solotareff est influencé par le thème du bestiaire, notamment égyptien, ainsi que par le travail de grands animaliers tel que Gustave Doré[12].
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carrière de dessinateur de Grégoire Solotareff commence en 1985 aux éditions Hatier. Parait, en parallèle, à L'École des loisirs, la série Monsieur l'Ogre qui marque le début d'une longue collaboration avec l'une des plus importantes maisons d'édition française de livres pour la jeunesse.  
+La série Loulou, publiée en 1989, marque un tournant dans sa carrière ; cette amitié entre un loup et un lapin inaugure un travail graphique utilisant des couleurs vives et de grands aplats de couleur cernés de noir. Vendu à plus d'un million d'exemplaires et traduit en plusieurs langues, Loulou est adapté en film en 2003 avec Loulou et autres loups. Loulou, l'incroyable secret reçoit ensuite le César 2014 du meilleur long-métrage d'animation.
 </t>
         </is>
       </c>
@@ -565,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gr%C3%A9goire_Solotareff</t>
+          <t>Grégoire_Solotareff</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,31 +597,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Travail artistique</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Livres de jeunesse
-Grégoire Solotareff est l'auteur de plus de 150 livres pour enfants, édités essentiellement à l'École des Loisirs.  
-Depuis 1994, il dirige la collection « Loulou &amp; Cie » au sein de L'École des loisirs. Il partage son temps entre publication de livres, édition et recherche personnelle (dessin, photographie, design et sculpture) dont le sujet est essentiellement bestiaire, imaginaire plus que réaliste.
-Travail plastique et sculptures
-Le travail plastique de Grégoire Solotareff est resté confidentiel jusqu'en 2014 quand il révèle, pour la première fois, cette partie très personnelle de son œuvre lors de l'exposition « Animal » au Quai d'Angers qui sera ensuite transférée à L'Abbaye de Fontevraud[13],[14].
-À travers ses réalisations, l'artiste est à la recherche de formes simples, sans détail, que l'on peut considérer comme archaïques. Cette caractéristique est d'autant plus présente dans son travail sur le corps féminin, grandement influencé par l'image d'une Vénus préhistorique et un désir d'appropriation des formes. Les techniques qu'il utilise vont de l'argile rouge à la résine, en passant également par le métal et le bois.
-Dessins et peintures
-Le dessin de Grégoire Solotareff lui sert notamment dans son travail de recherche. Il adopte des styles très différents allant du réalisme à l'abstraction, en passant par l'expressionnisme. La plupart de ses dessins et peintures sont réalisés à l'encre, à l'huile, à l'acrylique et à l'aquarelle. Son travail de recherche est marqué par l'utilisation du noir et du blanc, avec quelques rehauts de couleurs primaires[11].
-Photographie
-Son travail photographique est orienté par un désir de simplification des formes. Les sujets photographiés vont du nu aux natures mortes en passant par le paysage et les arbres, avec une volonté marquée de rapprocher les formes animales, humaines et végétales. Ses photographies sont majoritairement des Polaroïds et ont fait l'objet de l'exposition Monogatari au Musée d'Art moderne de Gunma au Japon en 2012[15].
-Filmographie
-Loulou, paru en 1989, est adapté en 2003 sous forme d'un moyen métrage d'animation de 56 minutes, sous le titre Loulou et les autres loups, réalisé par Serge Elissalde, sur un scénario de Grégoire Solotareff et Jean-Luc Fromental, et sur une musique de Sanseverino.
-Il sera suivi en 2006 d'un long-métrage d'animation, U, que Grégoire Solotareff écrit et coréalise avec le même réalisateur, Serge Elissalde. U aborde le thème de l'adolescence et de l'émancipation à travers des personnages animés par les voix de Vahina Giocante, Isild Le Besco et Bernadette Lafont, sur une musique et une interprétation de Sanseverino.
-Le film d'animation Loulou, l'incroyable secret, sorti en 2013, est une adaptation réalisée par Éric Omond, sur un scénario de Grégoire Solotareff et Jean-Luc Fromental. Le film obtient le César du meilleur film d'animation aux César 2014.
-Théâtre
-En 2012, il écrit la pièce Isabelle et la Bête, montée au MC2 de Grenoble et mise en scène par Véronique Bellegarde[16]avec des décors dessinés par Grégoire Solotareff.
-Urbanisme
-Depuis mai 2016, Loulou a été reproduit sur le pignon de l’école Victor Schœlcher d'Epinay-Sur-Seine, avenue de Lattre-de-Tassigny. Grégoire Solotareff a signé un dessin avec ses deux personnages historiques, Loulou qui tient par la main son ami le lapin.
-Dessins de presse
-Depuis 2015, Grégoire Solotareff est un contributeur régulier des pages du Huffington Post dans lequel on retrouve quotidiennement ses dessins d'humeur[17].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grégoire Solotareff est le compagnon de Kimiko, également illustratrice de jeunesse.
 </t>
         </is>
       </c>
@@ -615,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gr%C3%A9goire_Solotareff</t>
+          <t>Grégoire_Solotareff</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,54 +634,430 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Influences</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les auteurs et dessinateurs qui ont influencé le travail de Grégoire Solotareff vont de Jean de La Fontaine à Jean de Brunhoff  en passant par Alain Le Saux et Tomi Ungerer.  
+D'un point de vue plastique, il s'inspire des travaux de Paul Gauguin, Henri Matisse, Vincent van Gogh, Pablo Picasso, Pieter Brueghel, James Ensor, Antoine-Louis Barye et Jérôme Bosch, Constantin Brancusi ou encore Henry Moore.
+Le travail de Grégoire Solotareff est influencé par le thème du bestiaire, notamment égyptien, ainsi que par le travail de grands animaliers tel que Gustave Doré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grégoire_Solotareff</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A9goire_Solotareff</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Travail artistique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Livres de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grégoire Solotareff est l'auteur de plus de 150 livres pour enfants, édités essentiellement à l'École des Loisirs.  
+Depuis 1994, il dirige la collection « Loulou &amp; Cie » au sein de L'École des loisirs. Il partage son temps entre publication de livres, édition et recherche personnelle (dessin, photographie, design et sculpture) dont le sujet est essentiellement bestiaire, imaginaire plus que réaliste.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grégoire_Solotareff</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A9goire_Solotareff</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Travail artistique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Travail plastique et sculptures</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le travail plastique de Grégoire Solotareff est resté confidentiel jusqu'en 2014 quand il révèle, pour la première fois, cette partie très personnelle de son œuvre lors de l'exposition « Animal » au Quai d'Angers qui sera ensuite transférée à L'Abbaye de Fontevraud,.
+À travers ses réalisations, l'artiste est à la recherche de formes simples, sans détail, que l'on peut considérer comme archaïques. Cette caractéristique est d'autant plus présente dans son travail sur le corps féminin, grandement influencé par l'image d'une Vénus préhistorique et un désir d'appropriation des formes. Les techniques qu'il utilise vont de l'argile rouge à la résine, en passant également par le métal et le bois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grégoire_Solotareff</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A9goire_Solotareff</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Travail artistique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dessins et peintures</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dessin de Grégoire Solotareff lui sert notamment dans son travail de recherche. Il adopte des styles très différents allant du réalisme à l'abstraction, en passant par l'expressionnisme. La plupart de ses dessins et peintures sont réalisés à l'encre, à l'huile, à l'acrylique et à l'aquarelle. Son travail de recherche est marqué par l'utilisation du noir et du blanc, avec quelques rehauts de couleurs primaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grégoire_Solotareff</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A9goire_Solotareff</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Travail artistique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Photographie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son travail photographique est orienté par un désir de simplification des formes. Les sujets photographiés vont du nu aux natures mortes en passant par le paysage et les arbres, avec une volonté marquée de rapprocher les formes animales, humaines et végétales. Ses photographies sont majoritairement des Polaroïds et ont fait l'objet de l'exposition Monogatari au Musée d'Art moderne de Gunma au Japon en 2012.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grégoire_Solotareff</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A9goire_Solotareff</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Travail artistique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loulou, paru en 1989, est adapté en 2003 sous forme d'un moyen métrage d'animation de 56 minutes, sous le titre Loulou et les autres loups, réalisé par Serge Elissalde, sur un scénario de Grégoire Solotareff et Jean-Luc Fromental, et sur une musique de Sanseverino.
+Il sera suivi en 2006 d'un long-métrage d'animation, U, que Grégoire Solotareff écrit et coréalise avec le même réalisateur, Serge Elissalde. U aborde le thème de l'adolescence et de l'émancipation à travers des personnages animés par les voix de Vahina Giocante, Isild Le Besco et Bernadette Lafont, sur une musique et une interprétation de Sanseverino.
+Le film d'animation Loulou, l'incroyable secret, sorti en 2013, est une adaptation réalisée par Éric Omond, sur un scénario de Grégoire Solotareff et Jean-Luc Fromental. Le film obtient le César du meilleur film d'animation aux César 2014.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Grégoire_Solotareff</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A9goire_Solotareff</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Travail artistique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, il écrit la pièce Isabelle et la Bête, montée au MC2 de Grenoble et mise en scène par Véronique Bellegardeavec des décors dessinés par Grégoire Solotareff.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Grégoire_Solotareff</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A9goire_Solotareff</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Travail artistique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Urbanisme</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis mai 2016, Loulou a été reproduit sur le pignon de l’école Victor Schœlcher d'Epinay-Sur-Seine, avenue de Lattre-de-Tassigny. Grégoire Solotareff a signé un dessin avec ses deux personnages historiques, Loulou qui tient par la main son ami le lapin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Grégoire_Solotareff</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A9goire_Solotareff</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Travail artistique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dessins de presse</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2015, Grégoire Solotareff est un contributeur régulier des pages du Huffington Post dans lequel on retrouve quotidiennement ses dessins d'humeur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Grégoire_Solotareff</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A9goire_Solotareff</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Distinctions
-1987 : Prix Bernard Versele en Belgique pour Théo et Balthazar au pays des crocodiles
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1987 : Prix Bernard Versele en Belgique pour Théo et Balthazar au pays des crocodiles
 1988 : Sélection 1000 jeunes lecteurs (catégorie Livrimages) pour Ne m'appelez plus jamais "Mon petit lapin" 
-1988 : (international) « Honour List »[18] de l' IBBY pour Ne m'appelez plus jamais "Mon petit lapin" 
+1988 : (international) « Honour List » de l' IBBY pour Ne m'appelez plus jamais "Mon petit lapin" 
 1989 : Rennes d'Or d'Avoriaz pour La Grande Histoire de Théo et Balthazar
 1992 : Prix Sorcières (catégorie tout-petits) pour Les bêtises de bébé ours
 1992 : Prix de Montreuil
-1993 : Premier Prix Graphique enfants de la Foire du livre de jeunesse de Bologne[19] (Italie) pour Le Dictionnaire du Père Noël
+1993 : Premier Prix Graphique enfants de la Foire du livre de jeunesse de Bologne (Italie) pour Le Dictionnaire du Père Noël
 1993 : Prix Bernard Versele en Belgique pour Le chien qui disait non
 1993 : Prix du livre de l'année de la communauté française de Belgique et Prix du livre d'art pour enfants pour la ville de Marseille pour Petit Musée avec Alain Le Saux
-1994 : "Mention" Prix Graphique enfants de la Foire du livre de jeunesse de Bologne[20] (Italie) pour Petit Musée avec Alain Le Saux
+1994 : "Mention" Prix Graphique enfants de la Foire du livre de jeunesse de Bologne (Italie) pour Petit Musée avec Alain Le Saux
 1998 : Prix Livres Élus du Puy-en-Velay (catégorie 10-12 ans) pour Ma sorcière, Mon ange et moi
-2014 : César 2014 du meilleur long-métrage d'animation pour Loulou, l'incroyable secret
-Décoration
- Chevalier de l'ordre des Arts et des Lettres 2014[21]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Gr%C3%A9goire_Solotareff</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gr%C3%A9goire_Solotareff</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+2014 : César 2014 du meilleur long-métrage d'animation pour Loulou, l'incroyable secret</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Grégoire_Solotareff</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A9goire_Solotareff</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'ordre des Arts et des Lettres 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Grégoire_Solotareff</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gr%C3%A9goire_Solotareff</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Grégoire Solotareff est un auteur très prolifique. La liste indiquée ci-dessous n'est pas exhaustive. Pour une bibliographie plus complète, voir le site du Centre national de la littérature pour la jeunesse (BNF).
 1985 :
